--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_5.xlsx
@@ -518,1321 +518,1321 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_4</t>
+          <t>model_8_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999551709756943</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990584272231999</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999785943946723</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994938030574168</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998665593340318</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G2" t="n">
-        <v>4.184592642258e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008789168568747084</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I2" t="n">
-        <v>2.71267671329289e-05</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001956795976019921</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001114031823674605</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004985250024662132</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006468842742143296</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001075896583337</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00674423477002685</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P2" t="n">
-        <v>70.16303220667831</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.6349278283833</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_5</t>
+          <t>model_8_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999407523800501</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990581825090578</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999667342706905</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992907299678248</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998105424420088</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G3" t="n">
-        <v>5.530505255330915e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008791452867847123</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I3" t="n">
-        <v>4.215679391782669e-05</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002741811789279152</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001581689864228709</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00057855036652247</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007436736687103367</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001421942878798</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007753333964040549</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P3" t="n">
-        <v>69.60529257473067</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q3" t="n">
-        <v>100.0771881964357</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_6</t>
+          <t>model_8_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999923926816202</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990542071876347</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999485180882333</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9990787496878798</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997476392360224</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G4" t="n">
-        <v>7.101097784856838e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008828560748366913</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I4" t="n">
-        <v>6.524168836500688e-05</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003561259960331012</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002106838421990541</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006487276152424441</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008426801163464602</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001825756411152</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008785547534876488</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P4" t="n">
-        <v>69.10535215057911</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q4" t="n">
-        <v>99.57724777228412</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_3</t>
+          <t>model_8_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999649484325928</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990529255042937</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999808001850156</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996652286954795</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999079217800739</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G5" t="n">
-        <v>3.271909958868298e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008840524699760943</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I5" t="n">
-        <v>2.433142637667256e-05</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001294119119387942</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>7.687166915773338e-05</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004760454228601202</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005720061152530013</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000841237617774</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005963575997952156</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P5" t="n">
-        <v>70.65510313058331</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.1269987522883</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_7</t>
+          <t>model_8_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999042380253026</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990470440956217</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999246378927841</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E6" t="n">
-        <v>0.998846673417454</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999675784545913</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G6" t="n">
-        <v>8.938959991516052e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008895425068074231</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I6" t="n">
-        <v>9.550443922492398e-05</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0004458392822851338</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002706718607550289</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007158875736567122</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009454607337968116</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002298287392738</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009857109546080704</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P6" t="n">
-        <v>68.64501242919417</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.11690805089918</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_8</t>
+          <t>model_8_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998848349507385</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990388029654648</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998996228060159</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9986265481797151</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996058353855299</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001075015183241505</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008972352400650678</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001272054083487567</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0005309326803665082</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003290690443576325</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007710512803142177</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01036829389649765</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002763961182275</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01080969363299876</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P7" t="n">
-        <v>68.27601117310142</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.74790679480644</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_2</t>
+          <t>model_8_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999701446306315</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990383151721618</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999968561616814</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998241489144254</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999354259845128</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G8" t="n">
-        <v>2.786867680623789e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000897690573701829</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I8" t="n">
-        <v>3.984104568249289e-05</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>6.79784225631886e-05</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>5.390973412284074e-05</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000461732747394093</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00527907916271748</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000716528864844</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005503820491874741</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P8" t="n">
-        <v>70.97601438989626</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.4479100116013</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_9</t>
+          <t>model_8_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998644487641345</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990290503987361</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998724608409617</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E9" t="n">
-        <v>0.998400930419525</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999532985161156</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001265311286688997</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009063388330180528</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000161627060510274</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006181493124949707</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0003898881865026223</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008222165383806804</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01124860563220614</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003253229660772</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01172748206179287</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P9" t="n">
-        <v>67.9500444072691</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.42194002897412</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_10</t>
+          <t>model_8_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998456565481989</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990195864592973</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998470358387757</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9981953483761908</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9994660919084117</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001440728373617827</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009151730050652492</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001938475047862131</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006976207753381247</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0004457341400621689</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008635350125935023</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01200303450639807</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003704242843226</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01251402853504221</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P10" t="n">
-        <v>67.69038314251438</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.16227876421939</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_1</t>
+          <t>model_8_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999673639362857</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990129407394492</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999368824745201</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999934147630793</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999368488974678</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G11" t="n">
-        <v>3.046433291967108e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009213764928300782</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I11" t="n">
-        <v>7.998719912328021e-05</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>2.545642619215978e-05</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>5.272181265771999e-05</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004499054784332397</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005519450418263677</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000783265529143</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005754424849406634</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P11" t="n">
-        <v>70.79790794223402</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.269803563939</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_11</t>
+          <t>model_8_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998255594480333</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990087500350538</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998197285536012</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9979775034534102</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9993949309483089</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001628325982056519</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009252883314324926</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002284533173581865</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0007818326763658439</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0005051429968620151</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0009045620854438793</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01276058769044952</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N12" t="n">
-        <v>1.004186573247201</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01330383232649002</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P12" t="n">
-        <v>67.44557577952334</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.91747140122835</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_12</t>
+          <t>model_8_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999808425328648</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C13" t="n">
-        <v>0.998999361633378</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997963354190805</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9977922758995954</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9993342922963786</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001788265465508726</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009340519922937038</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002580988285659436</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0008534357425762368</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0005557672855710902</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009359372502718884</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01337260432940691</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N13" t="n">
-        <v>1.004597792112448</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01394190378081692</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P13" t="n">
-        <v>67.25818847120614</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73008409291116</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_13</t>
+          <t>model_8_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9997913701068477</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989895981381597</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9997731826296221</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9976080762211496</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9992740740345573</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001947468474637687</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009431657865120878</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002874397567247916</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0009246414649434166</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0006060406108341041</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009653698149533972</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01395517278516353</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N14" t="n">
-        <v>1.005007117435655</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01454927338181804</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P14" t="n">
-        <v>67.0876201219005</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q14" t="n">
-        <v>97.55951574360552</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_14</t>
+          <t>model_8_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.99977491998402</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989798712423698</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997510724484674</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9974300601738352</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9992160787211392</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002101023150464478</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009522454167706256</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003154594144858067</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0009934567926840378</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0006544581035849222</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0009921872337613161</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01449490652079025</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00540192038352</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01511198469997326</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P15" t="n">
-        <v>66.93583186278073</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.40772748448575</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_0</t>
+          <t>model_8_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999573908541154</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989785483734548</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998887182444988</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999880996972174</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999127840711319</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G16" t="n">
-        <v>3.977376735794194e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009534802568354637</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001410244756647086</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>4.600277607308534e-06</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>7.281237663600859e-05</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004438973298464981</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006306644698882436</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001022619501231</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006575131620268139</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P16" t="n">
-        <v>70.26460594918586</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.7365015708909</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_15</t>
+          <t>model_8_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999760275534278</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989709486850441</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999731652842042</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9972708312925392</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9991644750897763</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002237722660635522</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009605742323791501</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0003400693768413542</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001055009601082276</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0006975394889618153</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001014439504231087</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01495901955555752</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N17" t="n">
-        <v>1.005753387177327</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01559585598747699</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P17" t="n">
-        <v>66.80976338525444</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q17" t="n">
-        <v>97.28165900695946</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_16</t>
+          <t>model_8_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9997465907285266</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989624889251522</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9997136019160963</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9971219346990079</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999116302382366</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002365464315389823</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009684710468976953</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0003629448460079646</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001112568276482056</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0007377565612450101</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001034298619469157</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01538006604468857</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006081822515362</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01603482729733674</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P18" t="n">
-        <v>66.69873208288338</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.1706277045884</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_17</t>
+          <t>model_8_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997331240837284</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989538979435365</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9996960413070296</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9969749729638344</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9990689497728187</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002491169533406742</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009764903511354046</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003851989493406888</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001169378997334862</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007772889733377754</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001053503747676236</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01578343921142266</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N19" t="n">
-        <v>1.006405021990519</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01645537289487627</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P19" t="n">
-        <v>66.59517615927834</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.06707178098335</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_18</t>
+          <t>model_8_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9997213078399311</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989462665229851</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9996809284636867</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9968451033348118</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999027412119243</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002601468982523232</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009836139472394498</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0004043510628083104</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001219582454942021</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0008119667588751655</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001069434061293808</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01612906997481018</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N20" t="n">
-        <v>1.006688611841654</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01681571787541551</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P20" t="n">
-        <v>66.50852818643838</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.9804238081434</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_19</t>
+          <t>model_8_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9997101040535941</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989388409031148</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999666757809788</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9967215677124056</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9989880560128055</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0002706051410085465</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009905454374413635</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004223091640881538</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>0.001267337387554984</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0008448232758215689</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001084243391630666</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01645008027362014</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N21" t="n">
-        <v>1.006957502713743</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01715039424722874</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P21" t="n">
-        <v>66.42969968770934</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.90159530941436</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_20</t>
+          <t>model_8_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9997000884388566</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989321156008287</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9996542351564707</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9966107084904892</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9989528855357153</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002799542777312725</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H22" t="n">
-        <v>0.000996823211918772</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004381787970756107</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001310192027933469</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0008741854125045398</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001097070549976511</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01673183426081171</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N22" t="n">
-        <v>1.007197877467441</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01744414308496621</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P22" t="n">
-        <v>66.36176852389158</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q22" t="n">
-        <v>96.8336641455966</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_21</t>
+          <t>model_8_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9996911799615255</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989260260942826</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9996432261690861</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9965117248373495</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9989216133227158</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002882699502829687</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001002507498981184</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004521302005785219</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001348455952082606</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0009002930763305636</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00110809444495675</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01697851437208122</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N23" t="n">
-        <v>1.007411680923389</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0177013248792707</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P23" t="n">
-        <v>66.30322637894778</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q23" t="n">
-        <v>96.7751220006528</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_22</t>
+          <t>model_8_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9996832368216523</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.998920550199494</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9996335327865191</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9964231071217658</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9988937395407945</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002956845226910046</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001007619006402321</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004644143722989402</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001382712735296909</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0009235635537979249</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001117525794307272</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01719547971680362</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N24" t="n">
-        <v>1.007602316280345</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0179275268878981</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P24" t="n">
-        <v>66.25243494746066</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.72433056916567</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_5_23</t>
+          <t>model_8_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9996761760249102</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C25" t="n">
-        <v>0.998915642159364</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9996250163565394</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9963440436258973</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9988689710273854</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0003022754665165654</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001012200446425584</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004752070226035567</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001413276161811525</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0009442415922075408</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001125695062137279</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01738607104887603</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N25" t="n">
-        <v>1.007771775402155</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01812623208755529</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P25" t="n">
-        <v>66.20834363110737</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q25" t="n">
-        <v>96.68023925281238</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9996698871085322</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989112262137486</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9996175205010295</v>
+        <v>0.9999662338913162</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9962733553057918</v>
+        <v>0.9999996448331083</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9988469161233293</v>
+        <v>0.9999968605020622</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003081458939039303</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001016322537819996</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0004847063254155178</v>
+        <v>4.194864220611975e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001440602012423778</v>
+        <v>3.3416215023955e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0009626541689196479</v>
+        <v>2.264513185425763e-06</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001132738238965182</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01755408482103041</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N26" t="n">
-        <v>1.007922709395227</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01830139855382673</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P26" t="n">
-        <v>66.1698744112722</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q26" t="n">
-        <v>96.64177003297722</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
   </sheetData>
